--- a/Projects/SANOFICN/Data/Test_Template.xlsx
+++ b/Projects/SANOFICN/Data/Test_Template.xlsx
@@ -22,6 +22,8 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_POSM'!$A$2:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$4</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Route Plan Compliance'!$A$1:$E$768</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Route Plan Compliance'!$A$1:$E$768</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Route Plan Compliance'!$A$1:$E$768</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -848,7 +850,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -871,21 +873,27 @@
     <t xml:space="preserve">SCORE</t>
   </si>
   <si>
+    <t xml:space="preserve">MSL Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Availability Per SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric</t>
+  </si>
+  <si>
     <t xml:space="preserve">POSM Availability Primary</t>
   </si>
   <si>
     <t xml:space="preserve">Primary Shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Availability Per SKU</t>
-  </si>
-  <si>
     <t xml:space="preserve">Primary&amp;Secondary_POSM</t>
   </si>
   <si>
-    <t xml:space="preserve">numeric</t>
-  </si>
-  <si>
     <t xml:space="preserve">Product Minimum Facings Primary</t>
   </si>
   <si>
@@ -919,10 +927,7 @@
     <t xml:space="preserve">Product Minimum Facings Secondary</t>
   </si>
   <si>
-    <t xml:space="preserve">MSL Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL</t>
+    <t xml:space="preserve">Survey Questions</t>
   </si>
   <si>
     <t xml:space="preserve">Perfect Store</t>
@@ -935,9 +940,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total Survey Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey Questions</t>
   </si>
   <si>
     <t xml:space="preserve">Perfect Store Compliance</t>
@@ -1108,7 +1110,7 @@
     <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1132,24 +1134,11 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1162,6 +1151,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -1276,7 +1272,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1292,19 +1288,49 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDAE3F3"/>
-        <bgColor rgb="FFEDEDED"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDAE3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFB4C7E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFB4C7E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8FAADC"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFB2B2B2"/>
       </patternFill>
     </fill>
     <fill>
@@ -1322,13 +1348,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFEDEDED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1388,7 +1414,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1412,11 +1438,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1426,231 +1448,235 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="13" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="11" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="13" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1658,44 +1684,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="8" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="13" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="8" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="13" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1713,16 +1734,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C7E7"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF8FAADC"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FFEDEDED"/>
+      <rgbColor rgb="FFDAE3F3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDAE3F3"/>
+      <rgbColor rgb="FFB4C7E7"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1732,21 +1753,21 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFEDEDED"/>
       <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FFFFE699"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF666666"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1769,25 +1790,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G65536"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="16.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.2226720647773"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.0121457489879"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1810,260 +1831,249 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>26</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2082,82 +2092,82 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="A12 D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="15" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="15" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="16" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="17" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="18" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="19" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="20" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="23" t="n">
+      <c r="A3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="26" t="n">
         <v>43466</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="26" t="n">
+      <c r="H3" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2180,194 +2190,194 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="1" sqref="A12 F14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="27" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="28" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="30" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="30" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="30" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="20" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="H4" s="33"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="H5" s="33"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="H6" s="33"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-      <c r="H7" s="33"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="H8" s="33"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="H9" s="33"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
-      <c r="H10" s="33"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="H11" s="33"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="H12" s="33"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="H13" s="33"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="H14" s="33"/>
+      <c r="A14" s="34"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="H15" s="33"/>
+      <c r="A15" s="34"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="H16" s="33"/>
+      <c r="A16" s="34"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="H17" s="33"/>
+      <c r="A17" s="34"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="H18" s="33"/>
+      <c r="A18" s="34"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="H18" s="35"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2388,57 +2398,57 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A12 H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="36" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="37" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="38" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="38" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="38" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="39" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="40" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="24" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2461,58 +2471,58 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="A12 D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="42" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="42" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="42" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="41" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="44" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="30" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="45" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="45" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="46" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2535,32 +2545,32 @@
   </sheetPr>
   <dimension ref="1:4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="A12 H9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="47" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="47" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="47" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="48" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="49" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="48" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="48" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="49" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="50" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="45" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="46" t="s">
         <v>32</v>
       </c>
       <c r="I1" s="0"/>
@@ -3581,28 +3591,28 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="24" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="0"/>
@@ -4622,51 +4632,51 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="56" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="23" t="n">
+    <row r="3" s="57" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="26" t="n">
         <v>43466</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="52" t="n">
+      <c r="E3" s="53" t="n">
         <v>6955206300031</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="55" t="n">
+      <c r="H3" s="56" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="23" t="n">
+      <c r="A4" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="26" t="n">
         <v>43466</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="52" t="n">
+      <c r="E4" s="53" t="n">
         <v>6955206300031</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="55" t="n">
+      <c r="H4" s="56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4689,46 +4699,46 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="A12 E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="58" width="36.7408906882591"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="58" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="58" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="58" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="58" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="37.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="47" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="26" t="n">
         <v>43466</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="59" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="59" t="n">
@@ -4756,17 +4766,16 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A12 A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="60" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="60" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="37.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="60" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="60" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="60" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="60" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="7" style="60" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
@@ -4778,12 +4787,12 @@
       <c r="C1" s="61"/>
       <c r="D1" s="62"/>
       <c r="E1" s="62"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="61" t="s">
@@ -4801,18 +4810,18 @@
       <c r="E2" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="63" t="s">
         <v>52</v>
@@ -4831,7 +4840,7 @@
     </row>
     <row r="4" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="65" t="s">
         <v>53</v>
@@ -4850,7 +4859,7 @@
     </row>
     <row r="5" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="63" t="s">
         <v>55</v>

--- a/Projects/SANOFICN/Data/Test_Template.xlsx
+++ b/Projects/SANOFICN/Data/Test_Template.xlsx
@@ -24,6 +24,8 @@
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Route Plan Compliance'!$A$1:$E$768</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Route Plan Compliance'!$A$1:$E$768</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Route Plan Compliance'!$A$1:$E$768</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Route Plan Compliance'!$A$1:$E$768</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Route Plan Compliance'!$A$1:$E$768</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -850,7 +852,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="57">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -928,6 +930,9 @@
   </si>
   <si>
     <t xml:space="preserve">Survey Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURVEY_QUESTION</t>
   </si>
   <si>
     <t xml:space="preserve">Perfect Store</t>
@@ -1793,18 +1798,18 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.1781376518219"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.2226720647773"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.0121457489879"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1984,7 +1989,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1998,7 +2003,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>9</v>
@@ -2014,10 +2019,10 @@
     </row>
     <row r="11" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="7" t="s">
@@ -2029,10 +2034,10 @@
     </row>
     <row r="12" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="8" t="s">
@@ -2044,10 +2049,10 @@
     </row>
     <row r="13" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="10" t="s">
@@ -2059,14 +2064,14 @@
     </row>
     <row r="14" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="16"/>
@@ -2098,12 +2103,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="18" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="19" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="20" width="8.89068825910931"/>
@@ -2118,7 +2123,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2126,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2156,16 +2161,16 @@
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="29" t="n">
         <v>1</v>
@@ -2196,13 +2201,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="30" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="30" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="30" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="30" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="30" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="30" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="20" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2215,7 +2220,7 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2223,25 +2228,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>36</v>
-      </c>
       <c r="H2" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2404,13 +2409,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="38" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="38" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="39" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="38" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="38" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="39" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="40" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2423,7 +2428,7 @@
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
       <c r="H1" s="42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2431,25 +2436,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>36</v>
-      </c>
       <c r="H2" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2477,13 +2482,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="30" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="45" width="8.89068825910931"/>
   </cols>
@@ -2497,7 +2502,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2505,25 +2510,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2551,12 +2556,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="48" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="48" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="48" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="49" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="50" width="8.89068825910931"/>
@@ -2571,7 +2576,7 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
@@ -3595,25 +3600,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
@@ -4641,16 +4646,16 @@
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="53" t="n">
         <v>6955206300031</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="56" t="n">
         <v>2</v>
@@ -4665,16 +4670,16 @@
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="53" t="n">
         <v>6955206300031</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" s="56" t="n">
         <v>1</v>
@@ -4705,11 +4710,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="37.3846153846154"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="59" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4718,28 +4723,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="26" t="n">
         <v>43466</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="59" t="n">
         <v>2</v>
@@ -4772,10 +4777,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="60" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="60" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="60" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="60" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="7" style="60" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
@@ -4799,19 +4804,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
@@ -4821,16 +4826,16 @@
     </row>
     <row r="3" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="60" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="64"/>
       <c r="H3" s="64"/>
@@ -4840,16 +4845,16 @@
     </row>
     <row r="4" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="64"/>
       <c r="H4" s="64"/>
@@ -4859,16 +4864,16 @@
     </row>
     <row r="5" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="65" t="s">
-        <v>54</v>
-      </c>
       <c r="F5" s="64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="64"/>
       <c r="H5" s="64"/>
